--- a/biology/Zoologie/Elachura_formosa/Elachura_formosa.xlsx
+++ b/biology/Zoologie/Elachura_formosa/Elachura_formosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elachura formosa, unique représentant du genre Elachura et de la famille des Elachuridae, est une espèce d'oiseaux de l'ordre des passereaux.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était auparavant placée dans la famille des Timaliidae et le genre Spelaeornis en tant que Spelaeornis formosus, mais des études phylogénétiques moléculaires faites en 2014 ont fourni des éléments permettant de l'en séparer.
-Quand elle était placée dans la famille des Timaliidae, son nom normalisé CINFO était la Turdinule tachetée[2].
+Quand elle était placée dans la famille des Timaliidae, son nom normalisé CINFO était la Turdinule tachetée.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau préfère les forêts denses où il se nourrit d'insectes.
 </t>
